--- a/pizzeria/static/media/path_to_file.xlsx
+++ b/pizzeria/static/media/path_to_file.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,23 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -362,115 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>work_place</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>purchase_name</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pay_method</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>type_purchases</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>info</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>43840</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Biedronka</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>43836</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Biedronka</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/pizzeria/static/media/path_to_file.xlsx
+++ b/pizzeria/static/media/path_to_file.xlsx
@@ -1,34 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,15 +42,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -340,19 +339,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>